--- a/Archive/ExportOrderDetailList201610170722.xlsx
+++ b/Archive/ExportOrderDetailList201610170722.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ExportOrderDetailList2016101707" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" refMode="R1C1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -821,7 +821,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +829,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,7 +1239,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>14</v>
       </c>
